--- a/public/excel/collegerankings.xlsx
+++ b/public/excel/collegerankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\calgary-academic\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55454945-A8AE-4B71-8592-4AACDEE1CCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE1958-39A8-4E73-BCAD-0223807FCA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07D3E6F7-B78F-43A0-8494-A10D7F7F294C}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="891">
   <si>
     <t>Rank</t>
   </si>
@@ -2687,6 +2687,15 @@
   </si>
   <si>
     <t>3.2-3.7</t>
+  </si>
+  <si>
+    <t>2.5-3.4</t>
+  </si>
+  <si>
+    <t>2.5-3.3</t>
+  </si>
+  <si>
+    <t>900-1160</t>
   </si>
 </sst>
 </file>
@@ -3530,8 +3539,8 @@
   <dimension ref="A1:N279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,7 +3556,7 @@
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
     <col min="13" max="13" width="67" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="68.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15440,7 +15449,7 @@
         <v>382</v>
       </c>
       <c r="C271" t="s">
-        <v>46</v>
+        <v>889</v>
       </c>
       <c r="D271" t="s">
         <v>47</v>
@@ -15616,10 +15625,10 @@
         <v>234</v>
       </c>
       <c r="C275" t="s">
-        <v>46</v>
+        <v>889</v>
       </c>
       <c r="D275" t="s">
-        <v>47</v>
+        <v>890</v>
       </c>
       <c r="E275" t="s">
         <v>37</v>
@@ -15660,7 +15669,7 @@
         <v>219</v>
       </c>
       <c r="C276" t="s">
-        <v>35</v>
+        <v>888</v>
       </c>
       <c r="D276" t="s">
         <v>36</v>
@@ -15704,7 +15713,7 @@
         <v>865</v>
       </c>
       <c r="C277" t="s">
-        <v>46</v>
+        <v>889</v>
       </c>
       <c r="D277" t="s">
         <v>47</v>
@@ -15751,7 +15760,7 @@
         <v>46</v>
       </c>
       <c r="D278" t="s">
-        <v>47</v>
+        <v>890</v>
       </c>
       <c r="E278" t="s">
         <v>37</v>

--- a/public/excel/collegerankings.xlsx
+++ b/public/excel/collegerankings.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\calgary-academic\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA2D141-06F0-4848-9C40-1B191FFD79D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD11E58-F3A8-49ED-9612-8E5C1F9786B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{295FA471-F32D-45B3-B54D-396BC146AEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="updated_college_rankings" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">updated_college_rankings!$A$1:$R$279</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="1080">
   <si>
     <t>Rank</t>
   </si>
@@ -3254,6 +3257,12 @@
   </si>
   <si>
     <t>Program_Strengths_old</t>
+  </si>
+  <si>
+    <t>2.50-3.50</t>
+  </si>
+  <si>
+    <t>2.50-3.45</t>
   </si>
 </sst>
 </file>
@@ -3737,8 +3746,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4096,71 +4106,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8646C6B3-051F-4CC2-8C0E-18953A15B073}">
   <dimension ref="A1:R279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="79" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="82.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.7109375" customWidth="1"/>
+    <col min="18" max="18" width="117" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -19628,7 +19653,7 @@
         <v>1072</v>
       </c>
       <c r="C278" t="s">
-        <v>1025</v>
+        <v>1079</v>
       </c>
       <c r="D278" t="s">
         <v>1026</v>
@@ -19684,7 +19709,7 @@
         <v>1075</v>
       </c>
       <c r="C279" t="s">
-        <v>984</v>
+        <v>1078</v>
       </c>
       <c r="D279" t="s">
         <v>1012</v>
@@ -19733,6 +19758,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R279" xr:uid="{8646C6B3-051F-4CC2-8C0E-18953A15B073}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>